--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_new\htdocs\WebsiteA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tubes-proyek\webkelompok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6303D-2C9B-47B3-B5E4-B12BFBFF1AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F14AB-1F5D-4E1B-AC5E-EE01B0FAEB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" activeTab="2" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>TAHUN</t>
   </si>
@@ -91,6 +92,60 @@
   </si>
   <si>
     <t>PT. PASYA MITRA UTAMA</t>
+  </si>
+  <si>
+    <t>3 HPS TERKECIL</t>
+  </si>
+  <si>
+    <t>https://lpse.acehprov.go.id/eproc4/lelang/12794106/pengumumanlelang</t>
+  </si>
+  <si>
+    <t>https://lpse.acehprov.go.id/eproc4/lelang/12729106/pengumumanlelang</t>
+  </si>
+  <si>
+    <t>https://lpse.acehprov.go.id/eproc4/lelang/12563106/pengumumanlelang</t>
+  </si>
+  <si>
+    <t>5 Winrate Tertinggi</t>
+  </si>
+  <si>
+    <t>Winrate</t>
+  </si>
+  <si>
+    <t>Menang</t>
+  </si>
+  <si>
+    <t>ANDALAS POWER INDO</t>
+  </si>
+  <si>
+    <t>PT. Asuransi Jasa Indonesia (Persero) KC. Banda Aceh</t>
+  </si>
+  <si>
+    <t>PT. Visi Trading Distribusi</t>
+  </si>
+  <si>
+    <t>CV. MULTI GUNA</t>
+  </si>
+  <si>
+    <t>CV.DUA PUTRA MEUNARA</t>
+  </si>
+  <si>
+    <t>5 Partisipasi Tertinggi</t>
+  </si>
+  <si>
+    <t>CV. Ta Peu Makmue Nanggroe</t>
+  </si>
+  <si>
+    <t>CV. CUCO RAJA</t>
+  </si>
+  <si>
+    <t>CV. ABABIL</t>
+  </si>
+  <si>
+    <t>CV. Pulo Lhee Blah</t>
+  </si>
+  <si>
+    <t>SELENDANG NIKMAT</t>
   </si>
 </sst>
 </file>
@@ -121,36 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,22 +212,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,7 +542,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,50 +551,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2017</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1803</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3077</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1725</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2020</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1685</v>
       </c>
     </row>
@@ -581,7 +608,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,66 +619,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>8609106</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="5">
         <v>573354928000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>2017</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>29456106</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>395999943306</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2020</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>29456106</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>395999943306</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2021</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -670,10 +697,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5378AD-A0C4-41B0-929B-C61B15EC8B46}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,76 +710,152 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12794106</v>
+      </c>
+      <c r="B3">
+        <v>50190000</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12729106</v>
+      </c>
+      <c r="B4">
+        <v>50190000</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12563106</v>
+      </c>
+      <c r="B5">
+        <v>50240000</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B93F-7950-4C3F-8436-0A8B8D41E73B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>155</v>
       </c>
     </row>
@@ -762,4 +865,212 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A647B1-02D3-476D-8B2E-B9E393B4DFC6}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750983A8-1A8B-4C1A-ABC1-600E4B0A3F34}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0.14934926392148495</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>9.0334236675700091E-2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>3.1084861672365557E-2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0.16025641025641024</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>4.1169205434335117E-2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tubes-proyek\webkelompok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F14AB-1F5D-4E1B-AC5E-EE01B0FAEB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A160E1-C9EE-4BD8-829B-14C5B6E006B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,21 +79,6 @@
     <t>Partisipasi</t>
   </si>
   <si>
-    <t>CV. FARCHA UTAMA</t>
-  </si>
-  <si>
-    <t>PT MIKO YOVA</t>
-  </si>
-  <si>
-    <t>PT. PERENTJANA DJAJA</t>
-  </si>
-  <si>
-    <t>PT. Indocitra Intiperkasa</t>
-  </si>
-  <si>
-    <t>PT. PASYA MITRA UTAMA</t>
-  </si>
-  <si>
     <t>3 HPS TERKECIL</t>
   </si>
   <si>
@@ -146,6 +131,21 @@
   </si>
   <si>
     <t>SELENDANG NIKMAT</t>
+  </si>
+  <si>
+    <t>DARMA JAYA GROUP</t>
+  </si>
+  <si>
+    <t>CV. GADING PERDANA</t>
+  </si>
+  <si>
+    <t>PT. PUTRA MAULANA ELECTRIC</t>
+  </si>
+  <si>
+    <t>CV. SAHARA AGUNG</t>
+  </si>
+  <si>
+    <t>CV. TARGET CONSULTANT</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>2017</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>2017</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -780,89 +780,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B93F-7950-4C3F-8436-0A8B8D41E73B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18</v>
+      <c r="C5">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>306</v>
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>155</v>
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -879,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -898,7 +893,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -912,7 +907,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -926,7 +921,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -940,7 +935,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -954,7 +949,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -975,15 +970,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750983A8-1A8B-4C1A-ABC1-600E4B0A3F34}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1002,7 +997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.14934926392148495</v>
@@ -1016,7 +1011,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>9.0334236675700091E-2</v>
@@ -1030,7 +1025,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>3.1084861672365557E-2</v>
@@ -1044,7 +1039,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0.16025641025641024</v>
@@ -1058,7 +1053,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>4.1169205434335117E-2</v>

--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tubes-proyek\webkelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_new\htdocs\WebsiteA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A160E1-C9EE-4BD8-829B-14C5B6E006B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A11A3-03C4-4014-9573-1EBC294DE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>TAHUN</t>
   </si>
@@ -146,13 +149,37 @@
   </si>
   <si>
     <t>CV. TARGET CONSULTANT</t>
+  </si>
+  <si>
+    <t>ID 8609106</t>
+  </si>
+  <si>
+    <t>ID 29456106</t>
+  </si>
+  <si>
+    <t>Jasa Lainnya</t>
+  </si>
+  <si>
+    <t>Pengadaan Barang</t>
+  </si>
+  <si>
+    <t>Pekerjaan Konstruksi</t>
+  </si>
+  <si>
+    <t>Jasa Konsultansi Badan Usaha</t>
+  </si>
+  <si>
+    <t>Jasa Konsultansi Badan Usaha Konstruksi</t>
+  </si>
+  <si>
+    <t>Jumlah Tender Sesuai Jenis Pengadaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +197,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -208,11 +243,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -220,14 +256,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{05044DA6-C6B2-456E-93CE-6C671BB898E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,6 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E0A7D8-056E-4C4C-B1DE-7ACFF31EA0EB}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,44 +647,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83675663-C63E-4994-B88C-0C86F2108C8E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>8609106</v>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>573354928000</v>
@@ -655,8 +699,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>29456106</v>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>395999943306</v>
@@ -669,8 +713,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>29456106</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="5">
         <v>395999943306</v>
@@ -697,6 +741,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5378AD-A0C4-41B0-929B-C61B15EC8B46}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -778,10 +823,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B93F-7950-4C3F-8436-0A8B8D41E73B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,10 +910,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A647B1-02D3-476D-8B2E-B9E393B4DFC6}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +1015,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750983A8-1A8B-4C1A-ABC1-600E4B0A3F34}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,4 +1116,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A1E91-68C6-4E71-8F8E-2D785CFAB5B8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -5,21 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_new\htdocs\WebsiteA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 2\Proyek 1\Pertemuan 5\WebsiteA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A11A3-03C4-4014-9573-1EBC294DE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF391A-25D7-4249-99A6-9AFABE6B1251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
-  <si>
-    <t>TAHUN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Tahun Pengadaan</t>
   </si>
@@ -52,24 +46,6 @@
     <t>Jumlah</t>
   </si>
   <si>
-    <t>3 HPS TERTINGGI</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>HPS</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>https://lpse.acehprov.go.id/eproc4/lelang/8609106/pengumumanlelang</t>
-  </si>
-  <si>
-    <t>https://lpse.acehprov.go.id/eproc4/lelang/29456106/pengumumanlelang</t>
-  </si>
-  <si>
     <t>5 Paling Sering Menang</t>
   </si>
   <si>
@@ -82,42 +58,12 @@
     <t>Partisipasi</t>
   </si>
   <si>
-    <t>3 HPS TERKECIL</t>
-  </si>
-  <si>
-    <t>https://lpse.acehprov.go.id/eproc4/lelang/12794106/pengumumanlelang</t>
-  </si>
-  <si>
-    <t>https://lpse.acehprov.go.id/eproc4/lelang/12729106/pengumumanlelang</t>
-  </si>
-  <si>
-    <t>https://lpse.acehprov.go.id/eproc4/lelang/12563106/pengumumanlelang</t>
-  </si>
-  <si>
-    <t>5 Winrate Tertinggi</t>
-  </si>
-  <si>
     <t>Winrate</t>
   </si>
   <si>
     <t>Menang</t>
   </si>
   <si>
-    <t>ANDALAS POWER INDO</t>
-  </si>
-  <si>
-    <t>PT. Asuransi Jasa Indonesia (Persero) KC. Banda Aceh</t>
-  </si>
-  <si>
-    <t>PT. Visi Trading Distribusi</t>
-  </si>
-  <si>
-    <t>CV. MULTI GUNA</t>
-  </si>
-  <si>
-    <t>CV.DUA PUTRA MEUNARA</t>
-  </si>
-  <si>
     <t>5 Partisipasi Tertinggi</t>
   </si>
   <si>
@@ -149,12 +95,6 @@
   </si>
   <si>
     <t>CV. TARGET CONSULTANT</t>
-  </si>
-  <si>
-    <t>ID 8609106</t>
-  </si>
-  <si>
-    <t>ID 29456106</t>
   </si>
   <si>
     <t>Jasa Lainnya</t>
@@ -179,27 +119,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -227,48 +152,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{05044DA6-C6B2-456E-93CE-6C671BB898E6}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{05044DA6-C6B2-456E-93CE-6C671BB898E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,11 +493,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,211 +546,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83675663-C63E-4994-B88C-0C86F2108C8E}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5">
-        <v>573354928000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5">
-        <v>395999943306</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5">
-        <v>395999943306</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{F2BD9CD9-1D9D-4550-A503-A1E0601A7F20}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{8F39CF9E-F08F-4F2C-A856-0D82D6CC9A1F}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{5D427461-BDE2-4FF9-9680-54E6ED0B24CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5378AD-A0C4-41B0-929B-C61B15EC8B46}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>12794106</v>
-      </c>
-      <c r="B3">
-        <v>50190000</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12729106</v>
-      </c>
-      <c r="B4">
-        <v>50190000</v>
-      </c>
-      <c r="C4">
-        <v>2017</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12563106</v>
-      </c>
-      <c r="B5">
-        <v>50240000</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F9B93F-7950-4C3F-8436-0A8B8D41E73B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -861,7 +585,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -872,7 +596,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -883,7 +607,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -894,7 +618,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -908,112 +632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A647B1-02D3-476D-8B2E-B9E393B4DFC6}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750983A8-1A8B-4C1A-ABC1-600E4B0A3F34}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D7"/>
@@ -1026,26 +645,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.14934926392148495</v>
@@ -1059,7 +678,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>9.0334236675700091E-2</v>
@@ -1073,7 +692,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3.1084861672365557E-2</v>
@@ -1087,7 +706,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.16025641025641024</v>
@@ -1101,7 +720,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4.1169205434335117E-2</v>
@@ -1118,12 +737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A1E91-68C6-4E71-8F8E-2D785CFAB5B8}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1134,22 +753,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
+      <c r="A3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2110</v>
@@ -1157,7 +776,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>5202</v>
@@ -1165,7 +784,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1573</v>
@@ -1173,7 +792,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>235</v>

--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 2\Proyek 1\Pertemuan 5\WebsiteA1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tubes-proyek\webkelompok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF391A-25D7-4249-99A6-9AFABE6B1251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3293C-1260-461D-81FF-74B54B7031D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Tahun Pengadaan</t>
   </si>
@@ -113,6 +114,15 @@
   </si>
   <si>
     <t>Jumlah Tender Sesuai Jenis Pengadaan</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Total Selesai</t>
+  </si>
+  <si>
+    <t>Total Batal</t>
   </si>
 </sst>
 </file>
@@ -550,7 +560,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -804,4 +814,85 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD5D2D-0EC8-4627-B957-7ED5D2512ABE}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>1519</v>
+      </c>
+      <c r="C2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>2659</v>
+      </c>
+      <c r="C3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>1413</v>
+      </c>
+      <c r="C4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>836</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>1366</v>
+      </c>
+      <c r="C6">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataVisualisasi.xlsx
+++ b/dataVisualisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tubes-proyek\webkelompok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3293C-1260-461D-81FF-74B54B7031D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D4F2D-38F8-40F0-8CD5-D8A7D886FD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{63E6662F-397A-46B0-8A4B-7DFCC201E4DD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4687</v>
       </c>
     </row>
@@ -696,7 +696,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3321</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>3217</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2496</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2429</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +841,10 @@
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1519</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>283</v>
       </c>
     </row>
@@ -852,10 +852,10 @@
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2659</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>417</v>
       </c>
     </row>
@@ -863,10 +863,10 @@
       <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1413</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>316</v>
       </c>
     </row>
@@ -874,10 +874,10 @@
       <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>836</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>220</v>
       </c>
     </row>
@@ -885,10 +885,10 @@
       <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1366</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>319</v>
       </c>
     </row>
